--- a/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_API.xlsx
+++ b/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_API.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,180 +487,173 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\stage6_coaching.py</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\stage6_coaching.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\paths.py</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\paths.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\stage7_dashboard.py</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\stage7_dashboard.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\utils.py</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\utils.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\stage4_scoring.py</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\stage4_scoring.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\languagetool_service.py</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\languagetool_service.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\backup_manager.py</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\backup_manager.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\sessions.jsonl</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\sessions.jsonl</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\fluency_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\fluency_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\grammar_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\grammar_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_input\stage1.py</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_input\stage1.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\tools\enrich_topics.py</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\tools\enrich_topics.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\generate_topic.py</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\generate_topic.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\stage5_relevance.py</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\stage5_relevance.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
-        <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\__init__.py</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
         <is>
           <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\ui\dashboard.py</t>
         </is>

--- a/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_API.xlsx
+++ b/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_API.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,173 +487,180 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\stage6_coaching.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\stage6_coaching.py</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\paths.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\paths.py</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\stage7_dashboard.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\utils.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\stage7_dashboard.py</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\utils.py</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\stage4_scoring.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\stage4_scoring.py</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\languagetool_service.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\languagetool_service.py</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\backup_manager.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\sessions.jsonl</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\backup_manager.py</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\sessions.jsonl</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\fluency_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\grammar_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\fluency_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\grammar_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_input\stage1.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\tools\enrich_topics.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_input\stage1.py</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\generate_topic.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\tools\enrich_topics.py</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\generate_topic.py</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\stage5_relevance.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\stage5_relevance.py</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\__init__.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\ui\dashboard.py</t>
         </is>

--- a/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_API.xlsx
+++ b/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_API.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,173 +494,180 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\stage6_coaching.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\cloud\vertex_embeddings.py</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\stage6_coaching.py</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\paths.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\paths.py</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\stage7_dashboard.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\utils.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\stage7_dashboard.py</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\utils.py</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\stage4_scoring.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\stage4_scoring.py</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\languagetool_service.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\languagetool_service.py</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\backup_manager.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\sessions.jsonl</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\backup_manager.py</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\sessions.jsonl</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\fluency_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\grammar_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\fluency_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\grammar_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_input\stage1.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\tools\enrich_topics.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_input\stage1.py</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\generate_topic.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\tools\enrich_topics.py</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\generate_topic.py</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\stage5_relevance.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\stage5_relevance.py</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\__init__.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\ui\dashboard.py</t>
         </is>

--- a/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_API.xlsx
+++ b/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_API.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A36"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,236 +438,257 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\test1_Android.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\app.py</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\test2_API.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\deps.py</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\app.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\evaluate.py</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\deps.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\schemas.py</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\evaluate.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\security.py</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\schemas.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\security.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\categories.py</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\evaluate.py</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\cloud\vertex_embeddings.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\health.py</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\stage6_coaching.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\topics.py</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\paths.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\cloud\vertex_embeddings.py</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\stage6_coaching.py</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\stage7_dashboard.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\utils.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\paths.py</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\stage4_scoring.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\stage7_dashboard.py</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\utils.py</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\languagetool_service.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\stage4_scoring.py</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\backup_manager.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\sessions.jsonl</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\languagetool_service.py</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\fluency_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\backup_manager.py</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\grammar_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\sessions.jsonl</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\fluency_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_input\stage1.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\grammar_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\tools\enrich_topics.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\generate_topic.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_input\stage1.py</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\stage5_relevance.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\tools\enrich_topics.py</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\generate_topic.py</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\__init__.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\stage5_relevance.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\__init__.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\ui\dashboard.py</t>
         </is>

--- a/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_API.xlsx
+++ b/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_API.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,215 +480,208 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\categories.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\evaluate.py</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\evaluate.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\health.py</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\health.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\topics.py</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\topics.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\cloud\vertex_embeddings.py</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\cloud\vertex_embeddings.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\stage6_coaching.py</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\stage6_coaching.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\paths.py</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\paths.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\stage7_dashboard.py</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\stage7_dashboard.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\utils.py</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\utils.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\stage4_scoring.py</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\stage4_scoring.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\languagetool_service.py</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\languagetool_service.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\backup_manager.py</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\backup_manager.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\sessions.jsonl</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\sessions.jsonl</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\fluency_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\fluency_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\grammar_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\grammar_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_input\stage1.py</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_input\stage1.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\tools\enrich_topics.py</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\tools\enrich_topics.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\generate_topic.py</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\generate_topic.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\stage5_relevance.py</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\stage5_relevance.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
-        <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\__init__.py</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
         <is>
           <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\ui\dashboard.py</t>
         </is>

--- a/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_API.xlsx
+++ b/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_API.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,54 +634,61 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_text_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_input\stage1.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\tools\enrich_topics.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_input\stage1.py</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\generate_topic.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\tools\enrich_topics.py</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\generate_topic.py</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\stage5_relevance.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\stage5_relevance.py</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\__init__.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\ui\dashboard.py</t>
         </is>

--- a/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_API.xlsx
+++ b/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_API.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A39"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,68 +627,61 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_text_analysis.py</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_text_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_input\stage1.py</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_input\stage1.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\tools\enrich_topics.py</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\tools\enrich_topics.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\generate_topic.py</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\generate_topic.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\stage5_relevance.py</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\stage5_relevance.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
-        <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\__init__.py</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
         <is>
           <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\ui\dashboard.py</t>
         </is>

--- a/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_API.xlsx
+++ b/7. GARGI – Guided AI for Real-world Grammar & Interaction/project_files_API.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,194 +494,292 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\topics.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\score_speech.py</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\topics.py</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\cloud\vertex_embeddings.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\api\routes\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\stage6_coaching.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\cloud\vertex_embeddings.py</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\stage6_coaching.py</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\paths.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\coaching\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\paths.py</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\stage7_dashboard.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\core\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\utils.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\stage7_dashboard.py</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\utils.py</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\stage4_scoring.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\dashboard\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\feedback\generator.py</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\languagetool_service.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\feedback\templates.py</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring\explainability.py</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\backup_manager.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring\fluency.py</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\sessions.jsonl</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring\grammar.py</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring\level_matrix.py</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\fluency_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring\relevance.py</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\grammar_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring\scoring_engine.py</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_text_analysis.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring\weights.py</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_input\stage1.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\stage4_scoring.py</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\tools\enrich_topics.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\scoring_feedback\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\generate_topic.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\languagetool_service.py</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\services\__init__.py</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\stage5_relevance.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\backup_manager.py</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\__init__.py</t>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\sessions.jsonl</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\sessions\__init__.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\fluency_analysis.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\grammar_analysis.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\scoring_engine.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_analysis.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage3_text_analysis.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\stage4_scoring.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_analysis\__init__.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\speech_input\stage1.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\tools\enrich_topics.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\generate_topic.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_generation\__init__.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\stage5_relevance.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\topic_relevance\__init__.py</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>D:\Machine_Learning_Projects\7. GARGI – Guided AI for Real-world Grammar &amp; Interaction\ui\dashboard.py</t>
         </is>
